--- a/data/enroll.xlsx
+++ b/data/enroll.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\AR_BD_PT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\BookdownPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DCAD9B-739C-46C1-9509-52FC156265DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{005776B4-5E42-426E-8F82-812B96800BEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="by_class_L" sheetId="1" r:id="rId1"/>
+    <sheet name="by_class_l" sheetId="1" r:id="rId1"/>
     <sheet name="by_class_w" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>ay</t>
   </si>
@@ -88,12 +87,18 @@
   </si>
   <si>
     <t>2009-10</t>
+  </si>
+  <si>
+    <t>tot_ug</t>
+  </si>
+  <si>
+    <t>tot_grad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,14 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426E9753-E818-466A-BD79-A880F32E18A8}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +463,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +488,14 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -509,8 +520,16 @@
       <c r="H2">
         <v>7136</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>SUM(B2:F2)</f>
+        <v>26142</v>
+      </c>
+      <c r="J2">
+        <f>SUM(G2:H2)</f>
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -535,8 +554,16 @@
       <c r="H3">
         <v>7077</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="0">SUM(B3:F3)</f>
+        <v>25947</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="1">SUM(G3:H3)</f>
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -561,8 +588,16 @@
       <c r="H4">
         <v>6766</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>26373</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -587,8 +622,16 @@
       <c r="H5">
         <v>6606</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>26259</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -613,8 +656,16 @@
       <c r="H6">
         <v>6631</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>26278</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>8258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -639,8 +690,16 @@
       <c r="H7">
         <v>6746</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>26882</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>8315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -665,8 +724,16 @@
       <c r="H8">
         <v>6974</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>27547</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>8583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -691,8 +758,16 @@
       <c r="H9">
         <v>7030</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>27951</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>8623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -717,8 +792,16 @@
       <c r="H10">
         <v>7158</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>28848</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>8758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -742,6 +825,14 @@
       </c>
       <c r="H11">
         <v>7441</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>29611</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>9041</v>
       </c>
     </row>
   </sheetData>
@@ -750,10 +841,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEF7662-23DC-4C2D-95F4-38A75846B230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -761,6 +852,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
